--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H2">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I2">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J2">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.379781</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N2">
-        <v>4.139343</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O2">
-        <v>0.0234398703721191</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P2">
-        <v>0.0234398703721191</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q2">
-        <v>91.44579616637402</v>
+        <v>158.6370633583075</v>
       </c>
       <c r="R2">
-        <v>823.0121654973661</v>
+        <v>1427.733570224768</v>
       </c>
       <c r="S2">
-        <v>0.0003735704691547417</v>
+        <v>0.0005232986957664818</v>
       </c>
       <c r="T2">
-        <v>0.0003735704691547415</v>
+        <v>0.0005232986957664818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H3">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I3">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J3">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>3.81918</v>
       </c>
       <c r="O3">
-        <v>0.02162688236461434</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P3">
-        <v>0.02162688236461434</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q3">
-        <v>84.37279921057335</v>
+        <v>126.3951450902533</v>
       </c>
       <c r="R3">
-        <v>759.35519289516</v>
+        <v>1137.55630581228</v>
       </c>
       <c r="S3">
-        <v>0.0003446761634361796</v>
+        <v>0.0004169417485216014</v>
       </c>
       <c r="T3">
-        <v>0.0003446761634361796</v>
+        <v>0.0004169417485216014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H4">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I4">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J4">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8696043333333333</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N4">
-        <v>2.608813</v>
+        <v>199.351513</v>
       </c>
       <c r="O4">
-        <v>0.01477293342085909</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P4">
-        <v>0.01477293342085909</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q4">
-        <v>57.63353793927845</v>
+        <v>6597.506116390568</v>
       </c>
       <c r="R4">
-        <v>518.7018414535061</v>
+        <v>59377.5550475151</v>
       </c>
       <c r="S4">
-        <v>0.0002354420728958651</v>
+        <v>0.02176330217498174</v>
       </c>
       <c r="T4">
-        <v>0.0002354420728958651</v>
+        <v>0.02176330217498174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.27558733333335</v>
+        <v>4010.868571</v>
       </c>
       <c r="H5">
-        <v>198.826762</v>
+        <v>12032.605713</v>
       </c>
       <c r="I5">
-        <v>0.01593739484152995</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J5">
-        <v>0.01593739484152995</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>55.34225733333333</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N5">
-        <v>166.026772</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O5">
-        <v>0.9401603138424075</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P5">
-        <v>0.9401603138424074</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q5">
-        <v>3667.840609119141</v>
+        <v>6408.576498393322</v>
       </c>
       <c r="R5">
-        <v>33010.56548207227</v>
+        <v>57677.1884855399</v>
       </c>
       <c r="S5">
-        <v>0.01498370613604316</v>
+        <v>0.02114007692990574</v>
       </c>
       <c r="T5">
-        <v>0.01498370613604316</v>
+        <v>0.02114007692990574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>12032.605713</v>
       </c>
       <c r="I6">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J6">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.379781</v>
+        <v>1.27306</v>
       </c>
       <c r="N6">
-        <v>4.139343</v>
+        <v>3.81918</v>
       </c>
       <c r="O6">
-        <v>0.0234398703721191</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P6">
-        <v>0.0234398703721191</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q6">
-        <v>5534.120247762952</v>
+        <v>5106.07634299726</v>
       </c>
       <c r="R6">
-        <v>49807.08222986657</v>
+        <v>45954.68708697534</v>
       </c>
       <c r="S6">
-        <v>0.02260775217653765</v>
+        <v>0.01684349819776606</v>
       </c>
       <c r="T6">
-        <v>0.02260775217653765</v>
+        <v>0.01684349819776606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>12032.605713</v>
       </c>
       <c r="I7">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J7">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.27306</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N7">
-        <v>3.81918</v>
+        <v>199.351513</v>
       </c>
       <c r="O7">
-        <v>0.02162688236461434</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P7">
-        <v>0.02162688236461434</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q7">
-        <v>5106.07634299726</v>
+        <v>266524.2393576661</v>
       </c>
       <c r="R7">
-        <v>45954.68708697534</v>
+        <v>2398718.154218994</v>
       </c>
       <c r="S7">
-        <v>0.02085912545966572</v>
+        <v>0.8791879015750601</v>
       </c>
       <c r="T7">
-        <v>0.02085912545966571</v>
+        <v>0.8791879015750601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4010.868571</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H8">
-        <v>12032.605713</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I8">
-        <v>0.9644998806575645</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J8">
-        <v>0.9644998806575644</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8696043333333333</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N8">
-        <v>2.608813</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O8">
-        <v>0.01477293342085909</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P8">
-        <v>0.01477293342085909</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q8">
-        <v>3487.868689772075</v>
+        <v>398.2703645107911</v>
       </c>
       <c r="R8">
-        <v>31390.81820794867</v>
+        <v>3584.433280597119</v>
       </c>
       <c r="S8">
-        <v>0.01424849252138074</v>
+        <v>0.001313781016232005</v>
       </c>
       <c r="T8">
-        <v>0.01424849252138074</v>
+        <v>0.001313781016232005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4010.868571</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H9">
-        <v>12032.605713</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I9">
-        <v>0.9644998806575645</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J9">
-        <v>0.9644998806575644</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>55.34225733333333</v>
+        <v>1.27306</v>
       </c>
       <c r="N9">
-        <v>166.026772</v>
+        <v>3.81918</v>
       </c>
       <c r="O9">
-        <v>0.9401603138424075</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P9">
-        <v>0.9401603138424074</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q9">
-        <v>221970.5205864609</v>
+        <v>317.3245863344666</v>
       </c>
       <c r="R9">
-        <v>1997734.685278148</v>
+        <v>2855.921277010199</v>
       </c>
       <c r="S9">
-        <v>0.9067845104999804</v>
+        <v>0.001046763843506113</v>
       </c>
       <c r="T9">
-        <v>0.9067845104999802</v>
+        <v>0.001046763843506113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H10">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I10">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J10">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.379781</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N10">
-        <v>4.139343</v>
+        <v>199.351513</v>
       </c>
       <c r="O10">
-        <v>0.0234398703721191</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P10">
-        <v>0.0234398703721191</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q10">
-        <v>101.602741707441</v>
+        <v>16563.53887428062</v>
       </c>
       <c r="R10">
-        <v>914.4246753669692</v>
+        <v>149071.8498685256</v>
       </c>
       <c r="S10">
-        <v>0.000415063190198498</v>
+        <v>0.05463841870680064</v>
       </c>
       <c r="T10">
-        <v>0.0004150631901984979</v>
+        <v>0.05463841870680064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.63686100000001</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H11">
-        <v>220.910583</v>
+        <v>41.011013</v>
       </c>
       <c r="I11">
-        <v>0.01770757191098638</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J11">
-        <v>0.01770757191098637</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,33 +1113,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.27306</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N11">
-        <v>3.81918</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O11">
-        <v>0.02162688236461434</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P11">
-        <v>0.02162688236461434</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q11">
-        <v>93.74414226466</v>
+        <v>21.84250197803378</v>
       </c>
       <c r="R11">
-        <v>843.6972803819401</v>
+        <v>196.582517802304</v>
       </c>
       <c r="S11">
-        <v>0.0003829595746818515</v>
+        <v>7.2052221312021E-05</v>
       </c>
       <c r="T11">
-        <v>0.0003829595746818515</v>
+        <v>7.2052221312021E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.63686100000001</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H12">
-        <v>220.910583</v>
+        <v>41.011013</v>
       </c>
       <c r="I12">
-        <v>0.01770757191098638</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J12">
-        <v>0.01770757191098637</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.8696043333333333</v>
+        <v>1.27306</v>
       </c>
       <c r="N12">
-        <v>2.608813</v>
+        <v>3.81918</v>
       </c>
       <c r="O12">
-        <v>0.01477293342085909</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P12">
-        <v>0.01477293342085909</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q12">
-        <v>64.03493341866434</v>
+        <v>17.40316006992666</v>
       </c>
       <c r="R12">
-        <v>576.3144007679791</v>
+        <v>156.62844062934</v>
       </c>
       <c r="S12">
-        <v>0.0002615927808860764</v>
+        <v>5.740809098462815E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002615927808860763</v>
+        <v>5.740809098462815E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.63686100000001</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H13">
-        <v>220.910583</v>
+        <v>41.011013</v>
       </c>
       <c r="I13">
-        <v>0.01770757191098638</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J13">
-        <v>0.01770757191098637</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.34225733333333</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N13">
-        <v>166.026772</v>
+        <v>199.351513</v>
       </c>
       <c r="O13">
-        <v>0.9401603138424075</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P13">
-        <v>0.9401603138424074</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q13">
-        <v>4075.230110680898</v>
+        <v>908.4008323569633</v>
       </c>
       <c r="R13">
-        <v>36677.07099612808</v>
+        <v>8175.607491212669</v>
       </c>
       <c r="S13">
-        <v>0.01664795636521995</v>
+        <v>0.002996556799162983</v>
       </c>
       <c r="T13">
-        <v>0.01664795636521995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>7.714644</v>
-      </c>
-      <c r="H14">
-        <v>23.143932</v>
-      </c>
-      <c r="I14">
-        <v>0.001855152589919057</v>
-      </c>
-      <c r="J14">
-        <v>0.001855152589919056</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.379781</v>
-      </c>
-      <c r="N14">
-        <v>4.139343</v>
-      </c>
-      <c r="O14">
-        <v>0.0234398703721191</v>
-      </c>
-      <c r="P14">
-        <v>0.0234398703721191</v>
-      </c>
-      <c r="Q14">
-        <v>10.644519212964</v>
-      </c>
-      <c r="R14">
-        <v>95.80067291667601</v>
-      </c>
-      <c r="S14">
-        <v>4.348453622820371E-05</v>
-      </c>
-      <c r="T14">
-        <v>4.34845362282037E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>7.714644</v>
-      </c>
-      <c r="H15">
-        <v>23.143932</v>
-      </c>
-      <c r="I15">
-        <v>0.001855152589919057</v>
-      </c>
-      <c r="J15">
-        <v>0.001855152589919056</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>1.27306</v>
-      </c>
-      <c r="N15">
-        <v>3.81918</v>
-      </c>
-      <c r="O15">
-        <v>0.02162688236461434</v>
-      </c>
-      <c r="P15">
-        <v>0.02162688236461434</v>
-      </c>
-      <c r="Q15">
-        <v>9.821204690639998</v>
-      </c>
-      <c r="R15">
-        <v>88.39084221575999</v>
-      </c>
-      <c r="S15">
-        <v>4.012116683058906E-05</v>
-      </c>
-      <c r="T15">
-        <v>4.012116683058905E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7.714644</v>
-      </c>
-      <c r="H16">
-        <v>23.143932</v>
-      </c>
-      <c r="I16">
-        <v>0.001855152589919057</v>
-      </c>
-      <c r="J16">
-        <v>0.001855152589919056</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.8696043333333333</v>
-      </c>
-      <c r="N16">
-        <v>2.608813</v>
-      </c>
-      <c r="O16">
-        <v>0.01477293342085909</v>
-      </c>
-      <c r="P16">
-        <v>0.01477293342085909</v>
-      </c>
-      <c r="Q16">
-        <v>6.708687852524</v>
-      </c>
-      <c r="R16">
-        <v>60.378190672716</v>
-      </c>
-      <c r="S16">
-        <v>2.740604569640854E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.740604569640853E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7.714644</v>
-      </c>
-      <c r="H17">
-        <v>23.143932</v>
-      </c>
-      <c r="I17">
-        <v>0.001855152589919057</v>
-      </c>
-      <c r="J17">
-        <v>0.001855152589919056</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>55.34225733333333</v>
-      </c>
-      <c r="N17">
-        <v>166.026772</v>
-      </c>
-      <c r="O17">
-        <v>0.9401603138424075</v>
-      </c>
-      <c r="P17">
-        <v>0.9401603138424074</v>
-      </c>
-      <c r="Q17">
-        <v>426.9458134830559</v>
-      </c>
-      <c r="R17">
-        <v>3842.512321347504</v>
-      </c>
-      <c r="S17">
-        <v>0.001744140841163855</v>
-      </c>
-      <c r="T17">
-        <v>0.001744140841163855</v>
+        <v>0.002996556799162983</v>
       </c>
     </row>
   </sheetData>
